--- a/worklist.xlsx
+++ b/worklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>信息来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,114 @@
   </si>
   <si>
     <t>英语要求高啊,拉美国家,比较看好.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港世贸通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移民销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海翱珂实业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿蓓纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外贸采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海艾络格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能工业部件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外贸销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋帆实业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外贸经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户外用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锴朴电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东辉休闲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户外休闲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东音乐器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡犬升天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾驰工贸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿化机械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diy家居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外贸业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,9 +345,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -534,15 +644,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,8 +675,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -572,17 +689,23 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="3">
+        <v>44031</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="3">
+        <v>44031</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
@@ -590,21 +713,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D4" s="3">
+        <v>44031</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D5" s="3">
+        <v>44031</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
@@ -612,10 +744,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D6" s="3">
+        <v>44031</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
@@ -623,10 +758,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D7" s="3">
+        <v>44031</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
@@ -634,10 +772,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D8" s="3">
+        <v>44031</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
@@ -645,21 +786,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D9" s="3">
+        <v>44031</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D10" s="3">
+        <v>44031</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
@@ -667,15 +817,134 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D11" s="3">
+        <v>44031</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44032</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44032</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/worklist.xlsx
+++ b/worklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t>信息来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,127 @@
   </si>
   <si>
     <t>阿里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎聘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海小莫网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外贸经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外拓展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已到达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已查收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已查阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔了一个月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动作有点慢啊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞎投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上体育用品,还不错哦,闵行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰山体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛逼很大,没听过这家啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,19 +765,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.25" customWidth="1"/>
+    <col min="7" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,8 +800,14 @@
       <c r="G1" s="2">
         <v>44032</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2">
+        <v>44033</v>
+      </c>
+      <c r="I1" s="2">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -696,7 +824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -712,8 +840,14 @@
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
@@ -730,7 +864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
@@ -744,7 +878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -758,7 +892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
@@ -771,8 +905,11 @@
       <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
@@ -785,8 +922,11 @@
       <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
@@ -802,8 +942,11 @@
       <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
@@ -816,8 +959,11 @@
       <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
@@ -834,7 +980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
@@ -844,8 +990,14 @@
       <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -861,90 +1013,206 @@
       <c r="F13" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D14" s="2">
+        <v>44032</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D15" s="2">
+        <v>44032</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D16" s="2">
+        <v>44032</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="3:6">
+      <c r="H16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D17" s="2">
+        <v>44032</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="3:6">
+      <c r="H17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D18" s="2">
+        <v>44032</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="3:6">
+      <c r="H18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="C19" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="D19" s="2">
+        <v>44032</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="3:6">
+      <c r="H19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="D20" s="2">
+        <v>44032</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="3:6">
+      <c r="H20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="D21" s="2">
+        <v>44032</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44033</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44061</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="C24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44061</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="C25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44061</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -986,12 +1254,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/worklist.xlsx
+++ b/worklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>信息来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,46 @@
   </si>
   <si>
     <t>牛逼很大,没听过这家啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔卡奥斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外贸经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管她呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利霸电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外贸经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试试看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞智电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做游戏手柄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +515,20 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -765,10 +818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -778,7 +834,7 @@
     <col min="7" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,8 +862,11 @@
       <c r="I1" s="2">
         <v>44061</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -824,7 +883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -847,7 +906,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
@@ -864,7 +923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
@@ -878,7 +937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -892,7 +951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
@@ -909,7 +968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
@@ -926,7 +985,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
@@ -946,7 +1005,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
@@ -963,7 +1022,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
@@ -980,7 +1039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
@@ -997,7 +1056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1017,7 +1076,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
@@ -1031,7 +1090,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1048,7 +1107,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1065,7 +1124,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
@@ -1082,7 +1141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1099,7 +1158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="C19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1116,7 +1175,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1133,7 +1192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1150,7 +1209,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -1173,7 +1232,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="C23" s="1" t="s">
         <v>79</v>
       </c>
@@ -1186,8 +1245,11 @@
       <c r="F23" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="C24" s="1" t="s">
         <v>82</v>
       </c>
@@ -1201,7 +1263,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="C25" s="1" t="s">
         <v>84</v>
       </c>
@@ -1214,9 +1276,57 @@
       <c r="F25" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="J25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44075</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="C27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44075</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44075</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
